--- a/biology/Botanique/Spondias/Spondias.xlsx
+++ b/biology/Botanique/Spondias/Spondias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spondias est un genre de plantes à fleurs de la famille du manguier (Anacardiaceae). Ce genre comporte dix-sept espèces décrites, dont sept sont originaires d'Amérique tropicale et dix d'Asie du Sud et du Sud-Est. 
 On les appelle communément Prune de Cythère, pomme Cythère, hog plums (prune de cochon), Spanish plums (prunes d'Espagne), libas en bikol et parfois golden apples (pomme d'or) en raison de la couleur vive des fruits ressemblant très vaguement à des pommes ou des prunes. Un autre nom commun plus univoque est mombin.
-D'après certaines théories, le nom de la ville de Bangkok (Thailande) dériverait du nom makok (มะกอก), olive, désignant le fruit de Spondias mombin ou autres Spondias tel le Spondias pinnata en thaï[2]. 
-Au Cambodge, Spondias pinnata est appelé /pɷːn siː pʰlaɛ/ (ពោនស៊ីផ្លែ) or /məkaʔ prẹj/ (ម្កាក់ព្រៃ)[3], et Spondias dulcis simplement /məkaʔ/ (ម្កាក់). 
+D'après certaines théories, le nom de la ville de Bangkok (Thailande) dériverait du nom makok (มะกอก), olive, désignant le fruit de Spondias mombin ou autres Spondias tel le Spondias pinnata en thaï. 
+Au Cambodge, Spondias pinnata est appelé /pɷːn siː pʰlaɛ/ (ពោនស៊ីផ្លែ) or /məkaʔ prẹj/ (ម្កាក់ព្រៃ), et Spondias dulcis simplement /məkaʔ/ (ម្កាក់). 
 Spondias pinnata est nommé pulicha kaai en langue tamil, ce qui signifie « fruit acide ». On l'appelle aussi amate kaai en kannada, ambade en tulu et en konkani. 
 Au Sri Lanka, on l'appelle amberella.
 </t>
@@ -516,10 +528,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Spondias représente des arbres à feuillage caduc ou persistant atteignant jusqu'à 25 m. Les feuilles alternes spiralées sont généralement pennées, ou plus rarement bipennées ou simples. Le fruit est une drupe rappelant une petite mangue (genre proche de Mangifera), longue de 4–10 cm, devenant jaune ou orange à maturité et contenant une graine unique.
-Les espèces de Spondias d'Asie du Sud-Est ont été révisées par Ding Hou en 1978[4]. L'espèce la plus récemment découverte, Spondias testudinis, fut décrite en 1998[5].
+Les espèces de Spondias d'Asie du Sud-Est ont été révisées par Ding Hou en 1978. L'espèce la plus récemment découverte, Spondias testudinis, fut décrite en 1998.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Usages culinaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Environ dix espèces de Spondias portent des fruits comestibles et ont été domestiquées pour la production fruitière. 
 Ces fruits sont aussi consommés par des mammifères herbivores comme les cervidés.
@@ -582,17 +598,19 @@
           <t>Sélection d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Spondias dulcis Parkinson (Syn. Spondias cytherea Sonn.[6]) - prune de Cythère, prune cythère, pomme Cythère, ou zévi (Réunion), sakoua Comores, vī tahiti (signifiant « mangue tahitienne ») à Tahiti, Tahitian apple, pomme cythere (Trinidad et Tobago)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Spondias dulcis Parkinson (Syn. Spondias cytherea Sonn.) - prune de Cythère, prune cythère, pomme Cythère, ou zévi (Réunion), sakoua Comores, vī tahiti (signifiant « mangue tahitienne ») à Tahiti, Tahitian apple, pomme cythere (Trinidad et Tobago)
 Spondias indica Airy Shaw &amp; Forman
 Spondias lakonensis Pierre
-Spondias mombin L. (Syn. Spondias venulosa (Engl.) Engl.[7]) - Mombin, prune mombin, Yellow mombin, gully plum, Ashanti plum, Java plum
+Spondias mombin L. (Syn. Spondias venulosa (Engl.) Engl.) - Mombin, prune mombin, Yellow mombin, gully plum, Ashanti plum, Java plum
 Spondias pinnata (L. f.) Kurz
 Spondias purpurea L. - prunier d'Espagne, mombin rouge, cirouelle, Jocote, purple mombin, red mombin, ciruela, siniguela, sirigwela
 Spondias radlkoferi Donn. Sm.
 Spondias tuberosa Arruda - Umbú, imbu, Brazil plum
-Haplospondias haplophylla (Airy Shaw &amp; Forman) Kosterm. (Syn. Spondias haplophylla Airy Shaw &amp; Forman[8])</t>
+Haplospondias haplophylla (Airy Shaw &amp; Forman) Kosterm. (Syn. Spondias haplophylla Airy Shaw &amp; Forman)</t>
         </is>
       </c>
     </row>
